--- a/supp/logfiles/sub-SRM_task-videorating_run-1_log.xlsx
+++ b/supp/logfiles/sub-SRM_task-videorating_run-1_log.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="88" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="285" uniqueCount="18">
   <si>
     <t>sub</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>C31_video.avi</t>
+  </si>
+  <si>
+    <t>C27_video.avi</t>
+  </si>
+  <si>
+    <t>B2_video.avi</t>
+  </si>
+  <si>
+    <t>D21_video.avi</t>
+  </si>
+  <si>
+    <t>D17_video.avi</t>
+  </si>
+  <si>
+    <t>A16_video.avi</t>
   </si>
 </sst>
 </file>
@@ -176,9 +191,7 @@
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
-      <c r="G4" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
